--- a/MainTop/04.02.2026 Таня ВБ/к2 04.02.2026 Таня ВБ.xlsx
+++ b/MainTop/04.02.2026 Таня ВБ/к2 04.02.2026 Таня ВБ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\04.02.2026 Таня ВБ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\04.02.2026 Таня ВБ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38AA158-736F-44E3-A881-654A1D2A3B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6331464-0320-4A52-9499-3C95F185CFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="84">
   <si>
     <t>OZN1912202800</t>
   </si>
@@ -271,6 +271,12 @@
   </si>
   <si>
     <t>OZN2474251681</t>
+  </si>
+  <si>
+    <t>Артикул</t>
+  </si>
+  <si>
+    <t>штрихкод</t>
   </si>
 </sst>
 </file>
@@ -588,831 +594,839 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="J11:J174"/>
+  <dimension ref="A1:C165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="11" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J11" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J12" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J13" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J14" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J15" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J16" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J17" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J18" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J19" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J20" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J21" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J22" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J23" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J24" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J25" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J26" t="s">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J27" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J28" t="s">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J29" t="s">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J30" t="s">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J31" t="s">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J32" t="s">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J33" t="s">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J34" t="s">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J35" t="s">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J36" t="s">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J37" t="s">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J38" t="s">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J39" t="s">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J40" t="s">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J41" t="s">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J42" t="s">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J43" t="s">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J44" t="s">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J45" t="s">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J46" t="s">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J47" t="s">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J48" t="s">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J49" t="s">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J50" t="s">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J51" t="s">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J52" t="s">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J53" t="s">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J54" t="s">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J55" t="s">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J56" t="s">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J57" t="s">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J58" t="s">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J59" t="s">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J60" t="s">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J61" t="s">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J62" t="s">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J63" t="s">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J64" t="s">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J65" t="s">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J66" t="s">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J67" t="s">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J68" t="s">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J69" t="s">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J70" t="s">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J71" t="s">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J72" t="s">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J73" t="s">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J74" t="s">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J75" t="s">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J76" t="s">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J77" t="s">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J78" t="s">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J79" t="s">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J80" t="s">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J81" t="s">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J82" t="s">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J83" t="s">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J84" t="s">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J85" t="s">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J86" t="s">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J87" t="s">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J88" t="s">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J89" t="s">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J90" t="s">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J91" t="s">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J92" t="s">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J93" t="s">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J94" t="s">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J95" t="s">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J96" t="s">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J97" t="s">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J98" t="s">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J99" t="s">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J100" t="s">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J101" t="s">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J102" t="s">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="103" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J103" t="s">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J104" t="s">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J105" t="s">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="106" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J106" t="s">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="107" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J107" t="s">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="108" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J108" t="s">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="109" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J109" t="s">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J110" t="s">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="111" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J111" t="s">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J112" t="s">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J113" t="s">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J114" t="s">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J115" t="s">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J116" t="s">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="117" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J117" t="s">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="118" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J118" t="s">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="119" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J119" t="s">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="120" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J120" t="s">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="121" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J121" t="s">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J122" t="s">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="123" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J123" t="s">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="124" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J124" t="s">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="125" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J125" t="s">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="126" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J126" t="s">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="127" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J127" t="s">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="128" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J128" t="s">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J129" t="s">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="130" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J130" t="s">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="131" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J131" t="s">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="132" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J132" t="s">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="133" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J133" t="s">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="134" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J134" t="s">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="135" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J135" t="s">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="136" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J136" t="s">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="137" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J137" t="s">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="138" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J138" t="s">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J139" t="s">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="140" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J140" t="s">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="141" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J141" t="s">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="142" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J142" t="s">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="143" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J143" t="s">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="144" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J144" t="s">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="145" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J145" t="s">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J146" t="s">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="147" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J147" t="s">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="148" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J148" t="s">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="149" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J149" t="s">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="150" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J150" t="s">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="151" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J151" t="s">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="152" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J152" t="s">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="153" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J153" t="s">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="154" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J154" t="s">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="155" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J155" t="s">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="156" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J156" t="s">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="157" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J157" t="s">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="158" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J158" t="s">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="159" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J159" t="s">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="160" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J160" t="s">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="161" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J161" t="s">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="162" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J162" t="s">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="163" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J163" t="s">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="164" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J164" t="s">
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="165" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J165" t="s">
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="166" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J166" t="s">
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="167" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J167" t="s">
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J168" t="s">
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="169" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J169" t="s">
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="170" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J170" t="s">
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="171" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J171" t="s">
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="172" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J172" t="s">
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="173" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J173" t="s">
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="174" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J174" t="s">
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" t="s">
         <v>81</v>
       </c>
     </row>
